--- a/biology/Microbiologie/Urostylidae/Urostylidae.xlsx
+++ b/biology/Microbiologie/Urostylidae/Urostylidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Urostylidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Urostylida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Urostyla, peut-être dérivé du grec ancien οὐρά / ourá, « queue », et de στυλοσ / stylos, colonne.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Alfred Kahl (1932), la caractéristique qui résume le genre type Urostyla est la combinaison suivante : 
 de nombreuses rangées ventrales (au nombre variant entre 4 et 10) de cirres courts,
@@ -554,7 +570,7 @@
 soit des cirres frontaux au sens strict du terme, plus ou moins nettement détachés de cet ensemble.
 La vacuole est située normalement, à gauche de la base du péristome ; ce dernier est diversement équipé selon les espèces. 
 L'ébauche du noyau est composé d'au moins deux parties, parfois plus. 
-La consistance du corps est molle et élastique[1].
+La consistance du corps est molle et élastique.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Urostylidae est largement répartie sur tout le globe[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Urostylidae est largement répartie sur tout le globe.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 mars 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 mars 2023) :
 Apoholosticha Fan, Chen, Hu, Shao, Al-Rasheid, Al-Farraj &amp; Lin, 2014
 Apourostylopsis Song, Wilbert, Li &amp; Zhang, 2011
 Arcuseries Huang, Chen, Song &amp; Berger, 2014
@@ -665,9 +685,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Urostylidae Bütschli, 1889[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Urostylidae Bütschli, 1889.
 </t>
         </is>
       </c>
